--- a/ESPD/codelists/ESPD-CodeLists_v3.2.0.xlsx
+++ b/ESPD/codelists/ESPD-CodeLists_v3.2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STOICDR\Documents\espd-demo\ESPD\codelists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F3C319-4545-4F00-9AE9-6DE905C2F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FC22D-A27A-4674-90D0-B8DF644ABAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessRight" sheetId="199" r:id="rId1"/>
@@ -919,9 +919,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>https://github.com/ESPD/ESPD-EDM</t>
-  </si>
-  <si>
     <t>BACH Banque de France</t>
   </si>
   <si>
@@ -1294,36 +1291,12 @@
     <t>3.2.0</t>
   </si>
   <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/ProfileExecutionID.gc</t>
-  </si>
-  <si>
     <t>ESPD-EDMv3.2.0</t>
   </si>
   <si>
     <t>https://github.com/OP-TED/ESPD-EDM/tree/3.2.0/</t>
   </si>
   <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/BooleanGUIControlType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/CriterionElementType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/EOIDType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/FinancialRatioType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/PropertyGroupType.gc</t>
-  </si>
-  <si>
-    <t>https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/ResponseDataType.gc</t>
-  </si>
-  <si>
     <t>20230315-0</t>
   </si>
   <si>
@@ -1343,6 +1316,33 @@
   </si>
   <si>
     <t>http://publications.europa.eu/resource/distribution/access-right/20220316-0/xml/gc/AccessRight.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/BooleanGUIControlType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/CriterionElementType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/EOIDType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/FinancialRatioType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/ProfileExecutionID.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/PropertyGroupType.gc</t>
+  </si>
+  <si>
+    <t>https://github.com/OP-TED/ESPD-EDM/tree/v3.2.0/codelists/gc/ResponseDataType.gc</t>
   </si>
 </sst>
 </file>
@@ -7059,7 +7059,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7070,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7097,7 +7097,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -7115,7 +7115,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="14"/>
       <c r="F6" s="21"/>
@@ -7125,7 +7125,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -7134,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -7143,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -7235,42 +7235,42 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
         <v>298</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -7325,7 +7325,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -7439,7 +7439,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -7447,7 +7447,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -7455,7 +7455,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -7463,7 +7463,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -7471,7 +7471,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -7579,7 +7579,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I10" s="6"/>
       <c r="L10" t="s">
@@ -7597,7 +7597,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L11" t="s">
         <v>58</v>
@@ -7614,7 +7614,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" t="s">
         <v>60</v>
@@ -7631,7 +7631,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" t="s">
         <v>62</v>
@@ -7648,7 +7648,7 @@
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" t="s">
         <v>64</v>
@@ -7665,7 +7665,7 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -7682,7 +7682,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
@@ -7699,7 +7699,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s">
         <v>76</v>
@@ -7716,7 +7716,7 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
         <v>78</v>
@@ -7733,7 +7733,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
         <v>80</v>
@@ -7750,7 +7750,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
         <v>82</v>
@@ -7767,7 +7767,7 @@
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
         <v>84</v>
@@ -7784,7 +7784,7 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
         <v>86</v>
@@ -7801,7 +7801,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -7825,7 +7825,7 @@
         <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -7865,7 +7865,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -7905,7 +7905,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -7945,7 +7945,7 @@
         <v>103</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -7985,7 +7985,7 @@
         <v>104</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -8025,7 +8025,7 @@
         <v>105</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -8065,7 +8065,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -8105,7 +8105,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -8145,7 +8145,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -8185,7 +8185,7 @@
         <v>115</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -8225,7 +8225,7 @@
         <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -8265,7 +8265,7 @@
         <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -8305,7 +8305,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -8345,7 +8345,7 @@
         <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8385,7 +8385,7 @@
         <v>125</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -8416,9 +8416,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/FinancialRatioType.gc" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -8449,7 +8449,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8475,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -8484,7 +8484,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -8493,7 +8493,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -8502,7 +8502,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -8511,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -8520,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -8556,7 +8556,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -8583,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -8592,7 +8592,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -8601,7 +8601,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -8610,7 +8610,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -8619,7 +8619,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -8653,7 +8653,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8688,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8708,7 +8708,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -8718,7 +8718,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -8728,7 +8728,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -8738,7 +8738,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -8831,139 +8831,139 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6"/>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="C9" t="s">
-        <v>211</v>
-      </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11" s="6"/>
       <c r="L11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.25">
       <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
         <v>212</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>213</v>
       </c>
-      <c r="C12" t="s">
-        <v>214</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25">
       <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
         <v>246</v>
       </c>
-      <c r="B13" t="s">
-        <v>247</v>
-      </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="6"/>
       <c r="J13" s="6"/>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25">
       <c r="A14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25">
       <c r="A15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -8973,7 +8973,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -8994,16 +8994,16 @@
     </row>
     <row r="16" spans="1:28" ht="14.25">
       <c r="A16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -9013,7 +9013,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -9034,42 +9034,42 @@
     </row>
     <row r="17" spans="1:12" ht="14.25">
       <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
         <v>325</v>
       </c>
-      <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" t="s">
-        <v>326</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/ProfileExecutionID.gc" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9113,7 +9113,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -9122,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -9131,7 +9131,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -9140,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -9241,7 +9241,7 @@
         <v>162</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9281,7 +9281,7 @@
         <v>163</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9321,7 +9321,7 @@
         <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9352,8 +9352,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/PropertyGroupType.gc" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9402,7 +9402,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -9412,7 +9412,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -9422,7 +9422,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -9432,7 +9432,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -9534,7 +9534,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -9574,7 +9574,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10"/>
@@ -9614,7 +9614,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -9648,13 +9648,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -9664,7 +9664,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -9694,7 +9694,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -9734,7 +9734,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -9774,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -9814,7 +9814,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -9854,7 +9854,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -9894,7 +9894,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -9934,7 +9934,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -9968,13 +9968,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -10014,7 +10014,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -10054,7 +10054,7 @@
         <v>165</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -10094,7 +10094,7 @@
         <v>129</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -10134,7 +10134,7 @@
         <v>146</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -10174,7 +10174,7 @@
         <v>147</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -10214,7 +10214,7 @@
         <v>145</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -10254,7 +10254,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -10294,7 +10294,7 @@
         <v>143</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -10334,7 +10334,7 @@
         <v>141</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -10374,7 +10374,7 @@
         <v>142</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -10414,7 +10414,7 @@
         <v>149</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -10445,16 +10445,16 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -10464,7 +10464,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -10485,16 +10485,16 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -10504,7 +10504,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -10525,16 +10525,16 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>241</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -10544,7 +10544,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -10565,8 +10565,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/ResponseDataType.gc" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10580,8 +10580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="12.75"/>
@@ -10595,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -10613,7 +10613,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -10622,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -10631,7 +10631,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -10640,7 +10640,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -10732,16 +10732,16 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -10751,7 +10751,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -10772,16 +10772,16 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -10791,7 +10791,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -10812,16 +10812,16 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -10831,7 +10831,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -10852,16 +10852,16 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -10871,7 +10871,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -10892,16 +10892,16 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -10911,7 +10911,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -10932,16 +10932,16 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -10951,7 +10951,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -10972,9 +10972,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/BooleanGUIControlType.gc" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -11003,7 +11003,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -11012,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -11030,7 +11030,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -11039,7 +11039,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -11048,7 +11048,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -11057,7 +11057,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -11066,7 +11066,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -11075,7 +11075,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -11111,7 +11111,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -11121,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11141,7 +11141,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -11151,7 +11151,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11161,7 +11161,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="21"/>
@@ -11171,7 +11171,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -11181,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11191,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11250,7 +11250,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -11270,7 +11270,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11280,7 +11280,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -11382,7 +11382,7 @@
         <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L8" t="s">
         <v>169</v>
@@ -11399,7 +11399,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11439,7 +11439,7 @@
         <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11479,7 +11479,7 @@
         <v>172</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11519,7 +11519,7 @@
         <v>173</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -11559,7 +11559,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11599,7 +11599,7 @@
         <v>175</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11639,7 +11639,7 @@
         <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
         <v>176</v>
@@ -11656,7 +11656,7 @@
         <v>177</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -11696,7 +11696,7 @@
         <v>154</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -11736,7 +11736,7 @@
         <v>157</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -11767,8 +11767,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/CriterionElementType.gc" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11797,7 +11797,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -11807,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11827,7 +11827,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -11837,7 +11837,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11847,7 +11847,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -11857,7 +11857,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -11867,7 +11867,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -11877,7 +11877,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11946,7 +11946,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -11956,7 +11956,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -11966,7 +11966,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -11976,7 +11976,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -11986,7 +11986,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11994,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -12030,7 +12030,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12060,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12070,7 +12070,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12080,7 +12080,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12090,7 +12090,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12100,7 +12100,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12110,7 +12110,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12166,7 +12166,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12176,7 +12176,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -12186,7 +12186,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12196,7 +12196,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12298,7 +12298,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -12338,7 +12338,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12378,7 +12378,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12418,7 +12418,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12458,7 +12458,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11"/>
@@ -12489,8 +12489,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://github.com/ESPD/ESPD-EDM/tree/v3.2.0/codelists/gc/EOIDType.gc" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -12501,6 +12501,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100087E4EC354ADFB40AC5D4FC129E379BA" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29f822455ff5391d2c7c2dfd7717ecba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35e6952e7efa586d011e824f69a654f2" ns2:_="">
     <xsd:import namespace="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
@@ -12672,22 +12687,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E61FB905-6753-4D6B-9555-45A818BB6BAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{742639C9-D5E0-4CBF-8139-6F41798C6819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5774DC4B-7AB9-4854-9E79-56DDD4D64737}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12703,28 +12727,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{742639C9-D5E0-4CBF-8139-6F41798C6819}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E61FB905-6753-4D6B-9555-45A818BB6BAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>